--- a/ALL.xlsx
+++ b/ALL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="346">
   <si>
     <t>"地公將軍"是指誰?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,894 @@
   </si>
   <si>
     <t>西元220年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備入蜀後娶了誰的妹妹?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜竺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國中何人在戰場上殺了淩統的父親?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘寜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田豐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操於那場戰役中擊敗了袁譚?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛城之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛城之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯鄲之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽州之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下不屬於魏國"五子良將"的武將是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張遼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國志中, 四勝四敗論是誰提出的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賈詡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備死時的年齡是多少?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操於那場戰役中擊敗了尹楷?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉禪的母親是誰 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"威震逍遙津"描述的是位五子良將的事蹟?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰最後統一了三國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向曹操獻"二虎競食"及"驅虎吞狼"之計的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張郃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏國的末代皇帝是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹髦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹奐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星寶刀原為何人所有?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢靈帝末年, 在西州與邊章、韓遂等一同舉兵起事的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬騰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孫瓚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孫瓚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張寶被劉備射中何部位?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉關張出道後殺死的第一個副將是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程遠志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫仲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許韶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽是哪裡人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河東郡安邑人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河東郡聞喜人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河東郡猗氏人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河東郡解懸人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽原來的字是什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因迎奉漢靈帝之功, 被封為長安鄉侯的以下哪一位宦官?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張讓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹仁率兵攻打新野擺出以下哪個陣法, 被徐庶識破, 大敗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字長蛇陣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇門遁甲陣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八門金鎖陣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地黃八幡陣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安二十四年, 曹操因為哪位大將的威脅, 而有了"徙許都以避其銳"的打算?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸遜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操曾帶刀闖入十常侍中誰的府邸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏惲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列武將中, 在《三國演義》和《三國志》中所記之字不同的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫堅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操的祖父是宦官出身, 名叫什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹謄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹滕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹騰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何年董卓入洛陽?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操是於何時中作《觀滄海》?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧、荀攸叔侄給曹操講述天下三"力", 是下面哪三個?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天力、地力、人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武力、智力、天子之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天力、地力、天子之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武力、智力、魅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜維與鐘會密謀反叛被告發, 最終被誰率兵剿滅?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文鴦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛灌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郤正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蠻第一智者是以下哪一位?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董荼那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金環三結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朵思大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帶來洞主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽的美髯有多長?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一尺八寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二尺五寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下那個不是三國演義書中所提到的特殊兵種?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大象兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早預言曹操"將來能安天下"的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操叔父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹嵩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何顒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許劭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許劭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備十五歲時外出游學, 曾拜在誰門下?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管寜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華歆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國演義》中, 誰"賠了夫人又折兵"?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直言曹操是"治世之能臣, 亂世之姦雄"的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹嵩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何顒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"吉利"是誰的小名?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇東坡詞念奴嬌中"羽扇綸巾, 談笑間, 檣櫓灰飛煙滅。"指的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程畿的字是什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮躬耕田畝之時, 常常以誰自比?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管仲、鮑叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管仲、樂毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百裡奚、樂毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊尹、百裡奚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁紹被眾人推選為討伐軍盟主, 誰請纓當先鋒?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"人情勢利古猶今, 誰識英雄是白身"這句話指的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮和諸葛恪是什麼關係?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔侄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖孫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家住樓桑村的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬騰曾被朝廷授予什麼官職?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎮西將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵西將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎮東將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵東將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇雙、張世平兩人是從事什職業的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打鐵匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>販馬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牢關戰役登場時, 孫堅頭戴著的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉焉發榜招軍時, 劉備多少歲?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十八歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十六歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十二歲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1477,7 +2365,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>120</v>
@@ -1490,6 +2378,1006 @@
       </c>
       <c r="G28" s="12" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>65</v>
+      </c>
+      <c r="F35" s="2">
+        <v>66</v>
+      </c>
+      <c r="G35" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="6">
+        <v>187</v>
+      </c>
+      <c r="E56" s="6">
+        <v>192</v>
+      </c>
+      <c r="F56" s="6">
+        <v>194</v>
+      </c>
+      <c r="G56" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>208</v>
+      </c>
+      <c r="E57" s="2">
+        <v>209</v>
+      </c>
+      <c r="F57" s="2">
+        <v>210</v>
+      </c>
+      <c r="G57" s="10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="6">
+        <v>4</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
